--- a/中原進捗コスト表.xlsx
+++ b/中原進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347054\Desktop\GitHub\DiaryLifeOnlline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03751E7A-4D74-40BE-A4FD-C0CA80FCD828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F95D122-3208-4928-8B4E-9C078F1A39F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4005" yWindow="-14445" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1103,14 +1103,14 @@
       </c>
       <c r="F3">
         <f>SUMIF(C3:C302,"完了",B3:B302)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H3">
         <f>SUM(D3:D302)</f>
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F4" s="7">
         <f ca="1">NETWORKDAYS(F5,F6)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="F6" s="8">
         <f ca="1">TODAY()</f>
-        <v>45593</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1224,11 +1224,11 @@
       </c>
       <c r="G9" s="7">
         <f ca="1">NETWORKDAYS(TODAY(),F9)</f>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" s="10">
         <f ca="1">($F$2 - $F$3) / G9</f>
-        <v>1.9714285714285715</v>
+        <v>1.9705882352941178</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1251,11 +1251,11 @@
       </c>
       <c r="G10" s="7">
         <f t="shared" ref="G10:G11" ca="1" si="0">NETWORKDAYS(TODAY(),F10)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H10" s="10">
         <f ca="1">($F$2 - $F$3) / G10</f>
-        <v>1.5333333333333334</v>
+        <v>1.5227272727272727</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1277,11 +1277,11 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H11" s="10">
         <f ca="1">($F$2 - $F$3) / G11</f>
-        <v>1.2321428571428572</v>
+        <v>1.2181818181818183</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1448,9 +1448,11 @@
         <v>4</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="D25" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="12" t="s">
@@ -2021,6 +2023,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2255,16 +2266,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C503E31-A055-4E3E-87D4-A7218666B93F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9235FD93-4680-4960-95C4-E56056A8E66E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2281,12 +2291,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C503E31-A055-4E3E-87D4-A7218666B93F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>